--- a/src/test/resources/relay_race/mass_start_none/dnf_leg_3/master.xlsx
+++ b/src/test/resources/relay_race/mass_start_none/dnf_leg_3/master.xlsx
@@ -191,7 +191,7 @@
     <t>MASS_START_ELAPSED_TIMES =</t>
   </si>
   <si>
-    <t>DNF_LEGS = 3:3</t>
+    <t>DNF_FINISHERS = 3:3</t>
   </si>
 </sst>
 </file>
